--- a/projects/AccountBalances.xlsx
+++ b/projects/AccountBalances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosueFortis\Downloads\Guía 6 proyectos en Ingles\Guía de inglés II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T Irvin Pineda\Desktop\Excel-Simulator2\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4653E957-088D-40AC-8957-57CB3DE3C287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D071150-2929-421A-BB8A-30D5CBBADEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{4AC40883-1B28-4B05-99FB-6585EB49D26D}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{4AC40883-1B28-4B05-99FB-6585EB49D26D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Black]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,13 +640,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -686,6 +679,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4072,7 +4072,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Account Balances">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5930750D-65EC-8272-E8E0-8B05E6B18A83}"/>
@@ -4113,7 +4113,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Education">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE65A41-81A9-12F6-F4F8-29E54BB29778}"/>
@@ -4192,7 +4192,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{535CCA2C-B6A6-406B-BB2B-2D488A58CAB6}" name="Tabla24" displayName="Tabla24" ref="A3:E6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{535CCA2C-B6A6-406B-BB2B-2D488A58CAB6}" name="Tabla24" displayName="Tabla24" ref="A3:E6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A3:E6" xr:uid="{535CCA2C-B6A6-406B-BB2B-2D488A58CAB6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4510,27 +4510,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D753DA-B746-4646-BD2D-B87C9F2C3977}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>22834.27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>18225.259999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>17689.87</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>17303.560000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>16970.55</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>16458.740000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>16352.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>15630.44</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>15400.77</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4720,26 +4720,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFF128F-A071-47DF-865E-C00CA2369D21}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>15630.44</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>22834.27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4819,26 +4819,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB35C1-1829-49B9-9CA1-1080CC2771B0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>15401</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>16459</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -4924,26 +4924,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDDB235-F9C1-4686-A521-35E3ED542597}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>17690</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>16352</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>17304</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
